--- a/CREST syndrome_vs_Food impaction.xlsx
+++ b/CREST syndrome_vs_Food impaction.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="History of Present Illness (the" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medical and Surgical History, i" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Social History, Health Behavior" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vitals and Physical Exam" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Results (labs, imaging, pr" sheetId="5" state="visible" r:id="rId5"/>
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Progressive skin thickening and tightening</t>
+          <t>Presence of skin changes such as sclerodactyly or telangiectasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of CREST syndrome, indicating sclerodactyly, which is not associated with food impaction.</t>
+          <t>These skin manifestations are characteristic of CREST syndrome and are not associated with food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Acute onset of severe chest pain after eating</t>
+          <t>Acute onset of severe chest pain or discomfort</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This finding is highly suggestive of food impaction, indicating a sudden obstruction, which is not typical in CREST syndrome.</t>
+          <t>Acute chest pain is more indicative of food impaction, which presents suddenly, unlike the gradual onset of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon (episodes of color change in fingers or toes)</t>
+          <t>History of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a classic symptom of CREST syndrome and is not typically present in cases of food impaction.</t>
+          <t>Raynaud's phenomenon is a common symptom in CREST syndrome, indicating vascular involvement, which is not typical in food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of recent dietary changes or consumption of large food items</t>
+          <t>Difficulty swallowing (dysphagia) that is sudden and severe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Recent changes in diet or eating large pieces of food are common precursors to food impaction, whereas CREST syndrome has a more gradual symptom onset.</t>
+          <t>Sudden dysphagia is more characteristic of food impaction, while CREST syndrome typically involves chronic dysmotility.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) that is progressive and associated with esophageal motility issues</t>
+          <t>Gastrointestinal symptoms such as esophageal dysmotility or reflux</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While dysphagia can occur in both conditions, in CREST syndrome it is often due to esophageal involvement, which is distinct from the acute nature of food impaction.</t>
+          <t>Esophageal dysmotility is a hallmark of CREST syndrome, whereas food impaction typically presents with acute obstruction symptoms.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Presence of visible food in the oropharynx or inability to swallow</t>
+          <t>History of recent eating or ingestion of large food bolus</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This is a direct indicator of food impaction, which would not be present in CREST syndrome.</t>
+          <t>Recent eating leading to food impaction is a direct cause, whereas CREST syndrome does not have such a direct correlation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension symptoms (e.g., exertional dyspnea)</t>
+          <t>Progressive symptoms over months to years</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The presence of pulmonary hypertension is a significant indicator of CREST syndrome and is not a feature of food impaction.</t>
+          <t>CREST syndrome symptoms develop gradually, while food impaction usually presents acutely.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nausea and vomiting immediately following a meal</t>
+          <t>Presence of regurgitation or vomiting shortly after eating</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Acute nausea and vomiting are more indicative of food impaction, contrasting with the chronic symptoms seen in CREST syndrome.</t>
+          <t>Regurgitation or vomiting is more commonly associated with food impaction due to obstruction, unlike the chronic symptoms of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms such as reflux or constipation over a long duration</t>
+          <t>History of pulmonary hypertension</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chronic gastrointestinal symptoms are more indicative of CREST syndrome due to its systemic nature, unlike the acute presentation of food impaction.</t>
+          <t>Pulmonary hypertension is a serious complication of CREST syndrome, which is not a feature of food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Relief of symptoms with the passage of food or liquids</t>
+          <t>No associated systemic symptoms such as fatigue or weight loss</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>This finding suggests a mechanical obstruction typical of food impaction, which is not a feature of CREST syndrome.</t>
+          <t>Food impaction typically does not present with systemic symptoms, which are more common in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -580,14 +580,147 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx A</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>History of Raynaud's phenomenon</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, indicating vascular involvement, which is not associated with food impaction.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Recent history of eating large or dry food</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A recent history of consuming large or dry food items is a direct risk factor for food impaction, which is not relevant to CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Presence of sclerodactyly</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sclerodactyly, or thickening and tightening of the skin on the fingers, is a hallmark of CREST syndrome and is not seen in food impaction.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>History of gastroesophageal reflux disease (GERD)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GERD can lead to esophageal strictures, increasing the likelihood of food impaction, while it is not a feature of CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>History of esophageal dysmotility</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Esophageal dysmotility is frequently observed in CREST syndrome due to connective tissue involvement, whereas food impaction typically does not cause this.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Use of medications that cause esophageal motility issues (e.g., anticholinergics)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Certain medications can lead to esophageal motility problems, increasing the risk of food impaction, which is not a concern in CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Use of immunosuppressive medications</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patients with CREST syndrome may be on immunosuppressive therapy for associated autoimmune conditions, which is not relevant to food impaction.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>History of previous esophageal strictures or surgeries</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Previous esophageal strictures or surgeries can predispose a patient to food impaction, while such a history is not typical for CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>History of pulmonary hypertension</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pulmonary hypertension can occur in CREST syndrome due to vascular changes, while it is not a feature of food impaction.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Acute onset of chest pain after eating</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acute chest pain following eating is more indicative of food impaction, whereas CREST syndrome typically presents with chronic symptoms.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -636,17 +769,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark feature of CREST syndrome, indicating skin involvement that is not typically present in food impaction.</t>
+          <t>Sclerodactyly is a hallmark feature of CREST syndrome, indicating skin involvement that is not typically associated with food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recent history of eating large meals</t>
+          <t>Recent dietary changes or increased food intake</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Eating large meals can lead to food impaction, particularly in individuals with esophageal motility issues, which is not a feature of CREST syndrome.</t>
+          <t>Recent changes in diet can lead to food impaction, particularly if larger or harder foods are consumed, which is not relevant to CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -658,17 +791,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is not a feature of food impaction.</t>
+          <t>Raynaud's phenomenon is commonly seen in CREST syndrome and suggests vascular involvement, which is not a feature of food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of esophageal strictures</t>
+          <t>History of gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Esophageal strictures can predispose individuals to food impaction, while CREST syndrome is characterized by different pathophysiological changes.</t>
+          <t>GERD can lead to food impaction due to esophageal irritation and narrowing, while it is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -680,39 +813,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases may suggest a genetic predisposition to CREST syndrome, whereas food impaction is not linked to familial autoimmune conditions.</t>
+          <t>A family history of autoimmune diseases may suggest a genetic predisposition to CREST syndrome, whereas food impaction is not linked to familial patterns.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Use of medications that affect esophageal motility</t>
+          <t>History of previous food impaction episodes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Medications such as anticholinergics can lead to food impaction due to decreased motility, which is not a concern in CREST syndrome.</t>
+          <t>A history of food impaction suggests a recurrent issue with swallowing or esophageal obstruction, which is not characteristic of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of gastrointestinal motility disorders</t>
+          <t>History of esophageal dysmotility</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility disorders are often seen in CREST syndrome due to smooth muscle involvement, unlike food impaction which is more acute and mechanical.</t>
+          <t>Esophageal dysmotility is associated with CREST syndrome due to connective tissue involvement, while food impaction typically does not cause motility issues.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>Poor oral hygiene or dental issues</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GERD can lead to complications such as food impaction, while CREST syndrome does not typically present with this history.</t>
+          <t>Poor oral hygiene can lead to difficulty swallowing and food impaction, while CREST syndrome does not typically present with these issues.</t>
         </is>
       </c>
     </row>
@@ -724,17 +857,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can be a complication of CREST syndrome, indicating systemic involvement, which is not relevant in cases of food impaction.</t>
+          <t>Pulmonary hypertension can occur in CREST syndrome and indicates systemic involvement, which is not a feature of food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recent dental work affecting chewing</t>
+          <t>Use of medications that affect esophageal motility</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Recent dental work may lead to difficulty in chewing and swallowing, increasing the risk of food impaction, which is unrelated to CREST syndrome.</t>
+          <t>Certain medications can lead to food impaction by affecting esophageal motility, which is not a concern in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -792,12 +925,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Acute onset of severe chest pain</t>
+          <t>Acute onset of chest pain</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Acute chest pain is more indicative of food impaction, especially if it is sudden and severe, unlike the gradual symptoms of CREST syndrome.</t>
+          <t>Acute chest pain is more indicative of food impaction, which can cause esophageal obstruction, unlike the chronic symptoms of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -814,12 +947,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of recent food intake</t>
+          <t>History of recent eating or swallowing difficulties</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A recent history of eating, particularly solid food, strongly suggests food impaction rather than CREST syndrome.</t>
+          <t>A recent history of eating or swallowing difficulties strongly suggests food impaction rather than the chronic nature of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -831,17 +964,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome due to vascular changes, whereas food impaction does not cause this.</t>
+          <t>Pulmonary hypertension can occur in CREST syndrome due to vascular changes, while food impaction does not cause this.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Visible signs of distress or discomfort during swallowing</t>
+          <t>Presence of stridor or wheezing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Patients with food impaction often exhibit acute distress, which is not typical in CREST syndrome.</t>
+          <t>Stridor or wheezing may indicate airway obstruction due to food impaction, which is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -853,17 +986,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While dysphagia can occur in both conditions, in CREST syndrome it is due to esophageal motility issues, which is more chronic and systemic.</t>
+          <t>Dysphagia can be present in CREST syndrome due to esophageal motility issues, whereas food impaction typically presents with acute symptoms.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tachycardia (increased heart rate)</t>
+          <t>Tachycardia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tachycardia can occur in response to acute pain or distress from food impaction, whereas it is less common in CREST syndrome.</t>
+          <t>Tachycardia can occur in response to acute distress from food impaction, while it is less common in the chronic setting of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -875,17 +1008,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Digital ulcers are specific to CREST syndrome and indicate vascular involvement, which is not seen in food impaction.</t>
+          <t>Digital ulcers are associated with CREST syndrome due to vascular compromise, which is not seen in food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Localized tenderness in the throat or chest</t>
+          <t>Localized tenderness in the chest or abdomen</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Localized tenderness suggests a mechanical obstruction like food impaction, which is not a feature of CREST syndrome.</t>
+          <t>Localized tenderness may indicate an obstruction or inflammation due to food impaction, which is not characteristic of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -948,7 +1081,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>An obstruction seen on a barium swallow study is indicative of food impaction, while it would not be a finding in CREST syndrome.</t>
+          <t>An obstruction seen on a barium swallow study is indicative of food impaction, while CREST syndrome would not typically present with such acute findings.</t>
         </is>
       </c>
     </row>
@@ -970,7 +1103,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The presence of a food bolus during endoscopy directly supports a diagnosis of food impaction, which is not relevant to CREST syndrome.</t>
+          <t>The presence of a food bolus during endoscopy directly supports a diagnosis of food impaction, which is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -982,17 +1115,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Decreased peristalsis on esophageal manometry is indicative of esophageal motility disorders associated with CREST syndrome, whereas food impaction would not show this finding.</t>
+          <t>Decreased peristalsis is indicative of esophageal motility disorders associated with CREST syndrome, whereas food impaction does not typically affect motility.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on manometry</t>
+          <t>Elevated white blood cell count (WBC)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal esophageal motility suggests that the esophagus is functioning properly, which is more consistent with food impaction than with CREST syndrome.</t>
+          <t>An elevated WBC count may indicate an inflammatory response due to food impaction, whereas it is not a typical finding in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1137,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary fibrosis on imaging is a common complication of CREST syndrome, while food impaction would not cause such findings.</t>
+          <t>Pulmonary fibrosis can be a complication of CREST syndrome, while food impaction would not cause such findings on imaging.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of connective tissue disease on imaging</t>
+          <t>CT scan showing localized esophageal dilation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of connective tissue disease findings on imaging supports food impaction, as CREST syndrome would typically show such signs.</t>
+          <t>Localized esophageal dilation on CT can indicate food impaction, while CREST syndrome would not typically present with this imaging finding.</t>
         </is>
       </c>
     </row>
@@ -1026,17 +1159,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sclerodactyly observed in a skin biopsy is a hallmark of CREST syndrome and is not associated with food impaction.</t>
+          <t>Sclerodactyly is a characteristic skin finding in CREST syndrome and is not associated with food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Elevated white blood cell count (WBC)</t>
+          <t>Normal esophageal motility studies</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>An elevated WBC count may indicate an inflammatory response due to food impaction, which is not a feature of CREST syndrome.</t>
+          <t>Normal motility studies would favor food impaction over CREST syndrome, which is associated with motility abnormalities.</t>
         </is>
       </c>
     </row>
